--- a/DemoFormProject/static/Data/CORONA.xlsx
+++ b/DemoFormProject/static/Data/CORONA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\כיתה י\מדעי המחשב\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\כיתה י\מדעי המחשב\DemoFormProject\DemoFormProject\DemoFormProject\static\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2409C9E6-6FAA-4188-AD43-9A72E112CF15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B314F65-BDF6-4F66-A831-B52638ABF180}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4620" xr2:uid="{E6381DE8-6C14-4E1F-B5F0-5D77C9E6FDFD}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4620" xr2:uid="{E6381DE8-6C14-4E1F-B5F0-5D77C9E6FDFD}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -363,9 +363,6 @@
     <t>Jordan</t>
   </si>
   <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
     <t>Réunion</t>
   </si>
   <si>
@@ -402,9 +399,6 @@
     <t>Sudan</t>
   </si>
   <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
@@ -670,6 +664,12 @@
   </si>
   <si>
     <t>Total deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan </t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1147,7 @@
   <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2392,7 +2392,7 @@
     </row>
     <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="B113" s="9">
         <v>429</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="114" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="9">
         <v>418</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="115" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="9">
         <v>408</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="9">
         <v>364</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="117" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="9">
         <v>363</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="118" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="9">
         <v>345</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="9">
         <v>342</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="9">
         <v>334</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="121" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="9">
         <v>329</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="122" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="9">
         <v>321</v>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="123" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="9">
         <v>308</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="9">
         <v>299</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="9">
         <v>275</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="126" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="B126" s="9">
         <v>270</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="127" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B127" s="9">
         <v>258</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="128" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B128" s="9">
         <v>245</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="129" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B129" s="9">
         <v>230</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="130" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B130" s="9">
         <v>211</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="131" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B131" s="9">
         <v>207</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="132" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B132" s="9">
         <v>207</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="133" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B133" s="9">
         <v>187</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="134" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B134" s="9">
         <v>175</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="135" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B135" s="9">
         <v>149</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="136" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B136" s="9">
         <v>146</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B137" s="9">
         <v>141</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="138" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B138" s="9">
         <v>138</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="139" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B139" s="9">
         <v>133</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="140" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B140" s="9">
         <v>128</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="141" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B141" s="9">
         <v>126</v>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="142" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B142" s="9">
         <v>124</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="143" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B143" s="9">
         <v>122</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="144" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B144" s="9">
         <v>116</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="145" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B145" s="9">
         <v>114</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="146" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B146" s="9">
         <v>110</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="147" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B147" s="9">
         <v>100</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="148" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B148" s="9">
         <v>99</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="149" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B149" s="9">
         <v>99</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="150" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B150" s="9">
         <v>95</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="151" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B151" s="9">
         <v>95</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="152" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B152" s="9">
         <v>82</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="153" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B153" s="9">
         <v>80</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="154" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B154" s="9">
         <v>80</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="155" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B155" s="9">
         <v>79</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="156" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B156" s="9">
         <v>76</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="157" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B157" s="9">
         <v>76</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="158" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B158" s="9">
         <v>74</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="159" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B159" s="9">
         <v>74</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="160" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B160" s="9">
         <v>73</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="161" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B161" s="9">
         <v>70</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="162" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B162" s="9">
         <v>65</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="163" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B163" s="9">
         <v>64</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="164" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B164" s="9">
         <v>61</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="165" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B165" s="9">
         <v>58</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="166" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B166" s="9">
         <v>54</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="167" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B167" s="9">
         <v>50</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="168" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B168" s="9">
         <v>46</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="169" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B169" s="9">
         <v>45</v>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="170" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B170" s="9">
         <v>43</v>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="171" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B171" s="9">
         <v>39</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="172" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B172" s="9">
         <v>38</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="173" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B173" s="9">
         <v>38</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="174" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B174" s="9">
         <v>36</v>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="175" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B175" s="9">
         <v>32</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="176" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B176" s="9">
         <v>27</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="177" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B177" s="9">
         <v>24</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="178" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B178" s="9">
         <v>24</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="179" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B179" s="9">
         <v>22</v>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="180" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B180" s="9">
         <v>19</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B181" s="9">
         <v>18</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B182" s="9">
         <v>18</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B183" s="9">
         <v>18</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="184" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B184" s="9">
         <v>18</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B185" s="9">
         <v>16</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="186" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B186" s="9">
         <v>16</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B187" s="9">
         <v>16</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="188" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B188" s="9">
         <v>15</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="189" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B189" s="10">
         <v>15</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="190" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B190" s="9">
         <v>15</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="191" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B191" s="9">
         <v>13</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="192" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B192" s="9">
         <v>13</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="193" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B193" s="9">
         <v>12</v>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B194" s="9">
         <v>11</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="195" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B195" s="9">
         <v>11</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="196" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B196" s="10">
         <v>11</v>
@@ -3258,7 +3258,7 @@
     </row>
     <row r="197" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B197" s="9">
         <v>11</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="198" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B198" s="9">
         <v>10</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B199" s="9">
         <v>10</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="200" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B200" s="9">
         <v>9</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="201" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B201" s="9">
         <v>9</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="202" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B202" s="9">
         <v>8</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="203" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B203" s="9">
         <v>8</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="204" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B204" s="11">
         <v>7</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B205" s="9">
         <v>7</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="206" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B206" s="9">
         <v>6</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B207" s="10">
         <v>6</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="208" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B208" s="9">
         <v>6</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="209" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B209" s="9">
         <v>6</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="210" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B210" s="9">
         <v>5</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="211" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B211" s="10">
         <v>3</v>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="212" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B212" s="9">
         <v>1</v>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="213" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B213" s="12">
         <v>1</v>
